--- a/qianhai/blacklist/credoo.xlsx
+++ b/qianhai/blacklist/credoo.xlsx
@@ -15,24 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>(378.69, 430.667]</t>
-  </si>
-  <si>
-    <t>(430.667, 482.333]</t>
-  </si>
-  <si>
-    <t>(482.333, 534]</t>
-  </si>
-  <si>
-    <t>(534, 585.667]</t>
-  </si>
-  <si>
-    <t>(585.667, 637.333]</t>
-  </si>
-  <si>
-    <t>(637.333, 689]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+  <si>
+    <t>[300, 550)</t>
+  </si>
+  <si>
+    <t>[550, 600)</t>
+  </si>
+  <si>
+    <t>[600, 650)</t>
+  </si>
+  <si>
+    <t>[650, 700)</t>
   </si>
   <si>
     <t>分数区间</t>
@@ -405,7 +399,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,16 +415,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>6</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -438,10 +432,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.0</v>
+        <v>26.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -452,13 +446,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0</v>
+        <v>88.0</v>
       </c>
       <c r="C3" t="n">
-        <v>10.0</v>
+        <v>104.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,13 +460,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>35.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>41.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,40 +474,12 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" t="n">
-        <v>79.0</v>
+        <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8481012658227848</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>55.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>65.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D7" t="n">
         <v>1.0</v>
       </c>
     </row>
